--- a/biology/Botanique/Alstonia/Alstonia.xlsx
+++ b/biology/Botanique/Alstonia/Alstonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alstonia est un genre de plantes eudicotylédones de la famille des Apocynacées. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (4 décembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (4 décembre 2019) :
 Alstonia actinophylla (A.Cunn.) K.Schum. (1895)
 Alstonia angustifolia Wall. ex A.DC. (1844)
 Alstonia angustiloba Miq. (1857)
@@ -558,7 +572,7 @@
 Alstonia vieillardii Van Heurck &amp; Müll.Arg. (1870)
 Alstonia vietnamensis D.J.Middleton (2005)
 Alstonia yunnanensis Diels (1912)
-Selon Tropicos                                           (4 décembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 décembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Alstonia actinophylla (A. Cunn.) K. Schum.
 Alstonia acuminata Miq.
 Alstonia angustifolia Wall.
